--- a/ModelCompare.xlsx
+++ b/ModelCompare.xlsx
@@ -510,40 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5304136253041363</v>
+        <v>0.5352798053527981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5304136253041363</v>
+        <v>0.5352798053527981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5304136253041363</v>
+        <v>0.5352798053527981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5304136253041363</v>
+        <v>0.5352798053527981</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32360097323601</v>
+        <v>1.369829683698297</v>
       </c>
       <c r="H2" t="n">
-        <v>1.150478584431718</v>
+        <v>1.170397233292311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7104622871046229</v>
+        <v>0.7226277372262774</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4695863746958637</v>
+        <v>0.4647201946472019</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4138824270859134</v>
+        <v>0.4194767470149877</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03256893157958984</v>
+        <v>0.0310671329498291</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001170635223388672</v>
+        <v>0.0001218318939208984</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03268599510192871</v>
+        <v>0.03118896484375</v>
       </c>
     </row>
     <row r="3">
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8418491484184915</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8418491484184915</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8418491484184915</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8418491484184915</v>
+        <v>0.8175182481751826</v>
       </c>
       <c r="G3" t="n">
         <v>0.4014598540145985</v>
@@ -574,22 +574,22 @@
         <v>0.6336085968597637</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2262773722627737</v>
+        <v>0.2457420924574209</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1581508515815085</v>
+        <v>0.1824817518248175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8025121994988567</v>
+        <v>0.7733394754491072</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1045701503753662</v>
+        <v>0.1329379081726074</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0266878604888916</v>
+        <v>0.02801895141601562</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1312580108642578</v>
+        <v>0.160956859588623</v>
       </c>
     </row>
     <row r="4">
@@ -614,28 +614,28 @@
         <v>0.7834549878345499</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6058394160583942</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7783568693461851</v>
+        <v>0.7545482527270411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3236009732360097</v>
+        <v>0.316301703163017</v>
       </c>
       <c r="J4" t="n">
         <v>0.2165450121654501</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7299993162886612</v>
+        <v>0.7307476028364721</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002908706665039062</v>
+        <v>0.0003032684326171875</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008913755416870117</v>
+        <v>0.006221771240234375</v>
       </c>
       <c r="N4" t="n">
-        <v>0.009204626083374023</v>
+        <v>0.006525039672851562</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.4914841849148419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.4914841849148419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.4914841849148419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.4914841849148419</v>
       </c>
       <c r="G5" t="n">
-        <v>1.766423357664234</v>
+        <v>1.64963503649635</v>
       </c>
       <c r="H5" t="n">
-        <v>1.329068605326389</v>
+        <v>1.284381188158854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8661800486618005</v>
+        <v>0.8223844282238443</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5231143552311436</v>
+        <v>0.5085158150851581</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3490816343378097</v>
+        <v>0.3667530923421148</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005748271942138672</v>
+        <v>0.0006489753723144531</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002701282501220703</v>
+        <v>0.0002739429473876953</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0008449554443359375</v>
+        <v>0.0009229183197021484</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.683698296836983</v>
+        <v>0.681265206812652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.683698296836983</v>
+        <v>0.681265206812652</v>
       </c>
       <c r="E6" t="n">
-        <v>0.683698296836983</v>
+        <v>0.681265206812652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.683698296836983</v>
+        <v>0.681265206812652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9902676399026764</v>
+        <v>0.9829683698296837</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9951219221294828</v>
+        <v>0.9914476132553266</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4987834549878346</v>
+        <v>0.4963503649635037</v>
       </c>
       <c r="J6" t="n">
-        <v>0.316301703163017</v>
+        <v>0.318734793187348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6045055789754009</v>
+        <v>0.6010956436705405</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01376581192016602</v>
+        <v>0.01070117950439453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001432895660400391</v>
+        <v>0.0002591609954833984</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01390910148620605</v>
+        <v>0.01096034049987793</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8442822384428224</v>
+        <v>0.8345498783454988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8442822384428224</v>
+        <v>0.8345498783454988</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8442822384428224</v>
+        <v>0.8345498783454988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8442822384428225</v>
+        <v>0.8345498783454987</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4014598540145985</v>
+        <v>0.4063260340632603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6336085968597637</v>
+        <v>0.6374370824350121</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2262773722627737</v>
+        <v>0.2360097323600973</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1557177615571776</v>
+        <v>0.1654501216545012</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8061206811086454</v>
+        <v>0.7938134854240357</v>
       </c>
       <c r="L7" t="n">
-        <v>1.885592937469482</v>
+        <v>2.313018083572388</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001801013946533203</v>
+        <v>0.001996994018554688</v>
       </c>
       <c r="N7" t="n">
-        <v>1.887393951416016</v>
+        <v>2.315015077590942</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8345498783454988</v>
+        <v>0.8126520681265207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8345498783454988</v>
+        <v>0.8126520681265207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8345498783454988</v>
+        <v>0.8126520681265207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8345498783454987</v>
+        <v>0.8126520681265208</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5328467153284672</v>
+        <v>0.4793187347931874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.729963502737272</v>
+        <v>0.692328487636604</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2700729927007299</v>
+        <v>0.2749391727493917</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1654501216545012</v>
+        <v>0.1873479318734793</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7938232662677276</v>
+        <v>0.7679502259081671</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3723340034484863</v>
+        <v>0.3688890933990479</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01398611068725586</v>
+        <v>0.01401090621948242</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3863201141357422</v>
+        <v>0.3828999996185303</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8369829683698297</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8369829683698297</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8369829683698297</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8369829683698297</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.440389294403893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6905690731337861</v>
+        <v>0.6636183348912935</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2530413625304136</v>
+        <v>0.2408759124087591</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1630170316301703</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7965234057385974</v>
+        <v>0.7999603006957423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2379598617553711</v>
+        <v>0.2308738231658936</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01743888854980469</v>
+        <v>0.01618528366088867</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2553987503051758</v>
+        <v>0.2470591068267822</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="G10" t="n">
-        <v>10320.09732360097</v>
+        <v>9098.720194647201</v>
       </c>
       <c r="H10" t="n">
-        <v>101.5878798066038</v>
+        <v>95.38721190310157</v>
       </c>
       <c r="I10" t="n">
-        <v>84.25790754257908</v>
+        <v>77.68856447688565</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9975669099756691</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.008487296360862453</v>
+        <v>-0.007876097653955754</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7027871608734131</v>
+        <v>1.516313076019287</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0004680156707763672</v>
+        <v>0.0007529258728027344</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7032551765441895</v>
+        <v>1.51706600189209</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5279805352798054</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5279805352798054</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5279805352798054</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5279805352798054</v>
+        <v>0.5693430656934306</v>
       </c>
       <c r="G11" t="n">
-        <v>1.347931873479319</v>
+        <v>1.267639902676399</v>
       </c>
       <c r="H11" t="n">
-        <v>1.161004682798187</v>
+        <v>1.125895156165262</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7153284671532847</v>
+        <v>0.6690997566909975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4720194647201946</v>
+        <v>0.4306569343065694</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4094287875047714</v>
+        <v>0.4612731338422951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02630186080932617</v>
+        <v>0.02335095405578613</v>
       </c>
       <c r="M11" t="n">
-        <v>9.131431579589844e-05</v>
+        <v>0.0001039505004882812</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02639317512512207</v>
+        <v>0.02345490455627441</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7858880778588808</v>
+        <v>0.8199513381995134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7858880778588808</v>
+        <v>0.8199513381995134</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7858880778588808</v>
+        <v>0.8199513381995134</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7858880778588808</v>
+        <v>0.8199513381995134</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5182481751824818</v>
+        <v>0.5571776155717761</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7198945583781571</v>
+        <v>0.7464433103536906</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3090024330900243</v>
+        <v>0.2846715328467153</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2141119221411192</v>
+        <v>0.1800486618004866</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7324523078433373</v>
+        <v>0.7756981113207529</v>
       </c>
       <c r="L12" t="n">
-        <v>2.05603289604187</v>
+        <v>2.110445976257324</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001494884490966797</v>
+        <v>0.0008218288421630859</v>
       </c>
       <c r="N12" t="n">
-        <v>2.057527780532837</v>
+        <v>2.111267805099487</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7980535279805353</v>
+        <v>0.7834549878345499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7980535279805353</v>
+        <v>0.7834549878345499</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7980535279805353</v>
+        <v>0.7834549878345499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7980535279805353</v>
+        <v>0.7834549878345499</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4768856447688564</v>
+        <v>0.583941605839416</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6905690731337861</v>
+        <v>0.7641607199008701</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2773722627737226</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2019464720194647</v>
+        <v>0.2165450121654501</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7476483489256079</v>
+        <v>0.7290589376748381</v>
       </c>
       <c r="L13" t="n">
-        <v>25.07528281211853</v>
+        <v>25.36935210227966</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1007859706878662</v>
+        <v>0.1081819534301758</v>
       </c>
       <c r="N13" t="n">
-        <v>25.1760687828064</v>
+        <v>25.47753405570984</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8272506082725061</v>
+        <v>0.8223844282238443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8272506082725061</v>
+        <v>0.8223844282238443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8272506082725061</v>
+        <v>0.8223844282238443</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8272506082725061</v>
+        <v>0.8223844282238444</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3965936739659368</v>
+        <v>0.4744525547445255</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6297568371728383</v>
+        <v>0.6888051645745156</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2360097323600973</v>
+        <v>0.2603406326034063</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1727493917274939</v>
+        <v>0.1776155717761557</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7838984354227698</v>
+        <v>0.7781879175100326</v>
       </c>
       <c r="L14" t="n">
-        <v>25.00378799438477</v>
+        <v>24.55427217483521</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06926083564758301</v>
+        <v>0.07479691505432129</v>
       </c>
       <c r="N14" t="n">
-        <v>25.07304883003235</v>
+        <v>24.62906908988953</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7931873479318735</v>
+        <v>0.7712895377128953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7931873479318735</v>
+        <v>0.7712895377128953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7931873479318735</v>
+        <v>0.7712895377128953</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7931873479318735</v>
+        <v>0.7712895377128954</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4209245742092457</v>
+        <v>0.4963503649635037</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6487870021888892</v>
+        <v>0.704521372964301</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2700729927007299</v>
+        <v>0.3065693430656934</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2068126520681265</v>
+        <v>0.2287104622871047</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7414859665474454</v>
+        <v>0.7138856372338376</v>
       </c>
       <c r="L15" t="n">
-        <v>25.22474098205566</v>
+        <v>26.87855100631714</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06449508666992188</v>
+        <v>0.07979607582092285</v>
       </c>
       <c r="N15" t="n">
-        <v>25.28923606872559</v>
+        <v>26.95834708213806</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8661800486618005</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8661800486618005</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8661800486618005</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8661800486618005</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2822384428223844</v>
+        <v>0.3552311435523114</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5312611813622227</v>
+        <v>0.5960127041870092</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1800486618004866</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1338199513381995</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8325773842965732</v>
+        <v>0.7992973339271701</v>
       </c>
       <c r="L16" t="n">
-        <v>26.86885595321655</v>
+        <v>29.99664378166199</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07000112533569336</v>
+        <v>0.1160030364990234</v>
       </c>
       <c r="N16" t="n">
-        <v>26.93885707855225</v>
+        <v>30.11264681816101</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8686131386861314</v>
+        <v>0.8418491484184915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8686131386861314</v>
+        <v>0.8418491484184915</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8686131386861314</v>
+        <v>0.8418491484184915</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8686131386861314</v>
+        <v>0.8418491484184915</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3114355231143552</v>
+        <v>0.340632603406326</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5580640851321246</v>
+        <v>0.5836373903429475</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1849148418491484</v>
+        <v>0.2141119221411192</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1313868613138686</v>
+        <v>0.1581508515815085</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8357991752978455</v>
+        <v>0.8025995342263808</v>
       </c>
       <c r="L17" t="n">
-        <v>26.60936117172241</v>
+        <v>38.18955636024475</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08121180534362793</v>
+        <v>0.09501981735229492</v>
       </c>
       <c r="N17" t="n">
-        <v>26.69057297706604</v>
+        <v>38.28457617759705</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8637469586374696</v>
+        <v>0.8442822384428224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8637469586374696</v>
+        <v>0.8442822384428224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8637469586374696</v>
+        <v>0.8442822384428224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8637469586374696</v>
+        <v>0.8442822384428225</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3090024330900243</v>
+        <v>0.3698296836982968</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5558798728952365</v>
+        <v>0.6081362377776026</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1873479318734793</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1362530413625304</v>
+        <v>0.1557177615571776</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8295099274347802</v>
+        <v>0.8053340179397929</v>
       </c>
       <c r="L18" t="n">
-        <v>29.84438300132751</v>
+        <v>29.8505859375</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09399199485778809</v>
+        <v>0.09534025192260742</v>
       </c>
       <c r="N18" t="n">
-        <v>29.9383749961853</v>
+        <v>29.94592618942261</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8175182481751825</v>
+        <v>0.805352798053528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8175182481751825</v>
+        <v>0.805352798053528</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8175182481751825</v>
+        <v>0.805352798053528</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8175182481751826</v>
+        <v>0.805352798053528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3965936739659368</v>
+        <v>0.5450121654501217</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6297568371728383</v>
+        <v>0.73824939244819</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2457420924574209</v>
+        <v>0.291970802919708</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1824817518248175</v>
+        <v>0.194647201946472</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7729528627562102</v>
+        <v>0.7564077556310046</v>
       </c>
       <c r="L19" t="n">
-        <v>31.47314882278442</v>
+        <v>38.35820293426514</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1120231151580811</v>
+        <v>0.08269596099853516</v>
       </c>
       <c r="N19" t="n">
-        <v>31.5851719379425</v>
+        <v>38.44089889526367</v>
       </c>
     </row>
   </sheetData>
